--- a/data/pip_all_data/birth_and_death_rate.xlsx
+++ b/data/pip_all_data/birth_and_death_rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoswald\Dropbox\Arbeit\postdoc_lausanne\papers\convergence\data\pip_all_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7251ECCA-D490-4B7F-8089-AC969B86495C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01568AE9-A2F0-4146-80AC-23B4D628D5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="539">
   <si>
     <t>Country Name</t>
   </si>
@@ -1654,6 +1654,9 @@
   </si>
   <si>
     <t>gdppc</t>
+  </si>
+  <si>
+    <t>gdppc_log10</t>
   </si>
 </sst>
 </file>
@@ -2429,7 +2432,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>elasticity_try!$C$2:$C$196</c:f>
+              <c:f>elasticity_try!$D$2:$D$196</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="195"/>
@@ -3042,6 +3045,7 @@
       <c:valAx>
         <c:axId val="2019371151"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3215,7 +3219,1568 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1024744094488189"/>
+                  <c:y val="-0.58810185185185182"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>elasticity_try!$C$2:$C$196</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="195"/>
+                <c:pt idx="0">
+                  <c:v>3.5479189640184212</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1807774775406519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.603888258979139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7717223526110448</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1392738301514891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.845271878425935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3344496643402026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3117784873968672</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6955624959010329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1593838187942014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8537387880699345</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7174616821247275</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5213410520634154</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3376775227778337</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7716619132380882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6968284185417808</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4171760983327539</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9458062286943614</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9059361281480522</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1683672870373769</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.1420527342318874</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.7790697060615948</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0642963383267281</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1733872751670598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9233440037871192</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.68320953776833</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.8515327082592457</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4050516994500155</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.2469330655726543</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.7256228693463775</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5669509148858776</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0187301220306564</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.5739076340557796</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.1661699103893897</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5090044036372205</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8032347924360392</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.3267486891550044</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.1991061650429549</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.8413636511761942</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.6376625076181472</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.6906560045607151</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0374031701223441</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.7693992051776064</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.2701214331629629</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.0425416014976445</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.188046500570862</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9762594873706854</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.2702914937745602</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.3589395355346072</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.0281138759210098</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.0788046671336877</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.3653309109248148</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.6383306458137308</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.0161792500005919</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.6526469539778068</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.5340916309436641</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.140586886412267</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.6586558629237773</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.7340627568432172</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.4216605444867234</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.3101876413663542</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.2627792327916256</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.1682204464144954</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.1363494422083926</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.9507202244985704</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.3409440024043446</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.7460249023841992</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.4030240424980307</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.459569875148941</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.1437116809079306</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.0501298985571959</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.5906892509580213</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.7031231146363086</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.0740640474657459</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.5243780365105737</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.8245934110387232</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.0198300174992561</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.1593374348993706</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.9438199838005459</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.7253884717405494</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.6271523008309954</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.9825060101928669</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.9722049336828351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.4168156880278744</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.6762945184170666</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.6910891168873019</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.6389447981354803</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.3027609050151909</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.4225976505166216</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.6587713605237679</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.1836244089961587</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.8947022702477496</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.1135059254964723</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.1532749641693512</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.3069368983773044</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.1154762210375475</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.2029492391759051</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.4872870548598085</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.2837274394502618</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.1222365223391018</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.836649257930548</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.0360977894416372</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.3501132990688149</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.2681714444317107</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.0737550065518251</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.7397001272032462</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.9066574552595914</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.1709584216251936</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.2731814272946593</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.2059326453177928</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.2926494087407967</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.7764127787331994</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.0758379911568969</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.3264635290414795</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.668376245235625</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.6142530247976508</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.0229480871091363</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.0670124408116406</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.0905628129405245</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.7111558222952716</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.173516581989499</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.4217242737578122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.7927200408200816</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.9641928084024061</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.0742787273379046</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.6921974104168251</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.7552675669845734</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4.7584175820035917</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4.8189447423510767</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.5858756824413205</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4.0409827578108732</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4.6438660741968798</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4.6536294131195621</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4.5352278270845456</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.3363650217073122</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.7187888689841957</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.4831134294963526</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4.0980841956412286</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.908247945583526</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4.1496091215064066</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.5608523613086671</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.5257110446015356</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4.1359714834401604</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.7513595180198647</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.7715912425459339</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.967993930236533</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.3497657238920437</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.8035803126389336</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4.66995281750311</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.5683271926320645</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.5455096687133087</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5.0323814794002795</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.379726520158675</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.2081348314971945</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.9633237243416617</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.1638253922339445</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.5710289439908967</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.5712655970413447</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4.2946315290645574</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.5443701135585064</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4.1705914166259337</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4.7336816020696864</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.9584062543596543</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4.5838845840452214</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>4.4460456340839247</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>4.2958648385740075</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.1539655496618209</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4.1928445172942101</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.3285546962666541</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4.2326711810429307</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.5922281497192006</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4.167223481842635</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4.2010212869098824</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.7023379504179541</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4.0253976994141993</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.7883779374705169</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.8035803126389336</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.5712655970413447</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4.3624118965402525</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4.0168626597698092</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>4.5013627474522702</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.663173237190402</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.4123593467055873</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3.3514898185080209</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4.2463573830871439</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4.8037016707265199</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.8921225247565792</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4.0264605196209837</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3.4472346257584574</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4.2326707019445262</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3.7430835543197016</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4.0749692711515797</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>4.1250838795168825</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.5168552622109805</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.3253400536465314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>elasticity_try!$D$2:$D$196</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="195"/>
+                <c:pt idx="0">
+                  <c:v>2.5509367233763087E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8497999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5558081715078642E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8024465828134703E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4329999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9469999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3999999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7368E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7174E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6582999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2141000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4469999999999988E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4589999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1623E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1890999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5569999999999986E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8250000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.5890000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.0049999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4115000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.1287000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1000000000000016E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.3620000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3999999999999986E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4933E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6356000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2349000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.3628E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.4689999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.068E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0923000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.6809999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.6104363409074974E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.4000000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.056000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3057999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.3400000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1753999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.6978E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.8888453265935067E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0627952154824783E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.3562105436667233E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.7295901999103625E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0097999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.6231000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5607000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.274661679646986E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0485999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4566000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.9883999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.0000000000000034E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.9920999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.4434999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.5713999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.2371000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.1456000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4616000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0310999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5463000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.7180608119331404E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.4822E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.9629242012438797E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.6718278839089695E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.2477586659378261E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.1906835330640022E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.3600000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2759394368405614E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.9709999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.2619999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.2614000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.4299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.9149999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.8082000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3890000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.9628999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.6599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2495999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.0971E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9440000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.5039999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.422445790619671E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5359999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.6769999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.2448999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.1809999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.1910000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.3514194045127719E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.3713448257178533E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.671298516620154E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.659E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.2397012759451492E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9.8091157660762356E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.1920999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.3118878789960479E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.0030000000000014E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.1375000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.3845000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.1068E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.4596584092948894E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.4509999999999984E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.1724E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7.8569447180327247E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.2369000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7.3340000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.4886745564003909E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.5282E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.7805E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.5754000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.5876E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>9.2059999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.2314691392634598E-4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.6730000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.7152000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.4034E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.5648000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.9999999999999856E-4</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.6000000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.2626000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.0927000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4.6500000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5.8121431581616893E-4</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.4623000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.3254691949380271E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.0350999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.1625E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9.6340000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.4501999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.8831000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.6932639384036085E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.2988999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.4420999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.7947524870175813E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8.5050000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.3695999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>9.5995521365650188E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.4608999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.6796999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.6651000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.4757000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.2246999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7.363999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.1965E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.5530604150143441E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.5529088964104728E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.2028684910801878E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.1876E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9.4870000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.1999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.2778000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4.0999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.2350000000000013E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.0853000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.8760991864449155E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.3688000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.0770000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.2201000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.5006999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.6194906664517909E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.7710999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.477313635674608E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.6075000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>9.5995521365650188E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.5529088964104728E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.5559999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8.2089999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>8.2800000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.3325000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.9988000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3.0918000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.6932381937873019E-3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5.9999999999999962E-4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.0899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>7.6909999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.4042999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>8.2140347704251927E-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.1911E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3.9230000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>8.3890000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.7538000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.1479999999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30FF-47DD-B40D-F84E692C41F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="169707568"/>
+        <c:axId val="1933240048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="169707568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1933240048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1933240048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="169707568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3771,17 +5336,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
       <xdr:row>172</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
       <xdr:row>187</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
@@ -3804,6 +5885,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>6</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>6</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934F152B-7D17-72E7-D133-8C9EC7649AA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11200,15 +13317,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4A9073-FA10-4F60-99F0-9B55A9BBE8DA}">
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="I193" sqref="I193"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>534</v>
       </c>
@@ -11216,10 +13333,13 @@
         <v>537</v>
       </c>
       <c r="C1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2.5509367233763087E-2</v>
       </c>
@@ -11227,10 +13347,14 @@
         <v>3531.1727470000001</v>
       </c>
       <c r="C2">
+        <f>LOG10(B2)</f>
+        <v>3.5479189640184212</v>
+      </c>
+      <c r="D2">
         <v>2.5509367233763087E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.8497999999999999E-2</v>
       </c>
@@ -11238,10 +13362,14 @@
         <v>1516.273265</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">LOG10(B3)</f>
+        <v>3.1807774775406519</v>
+      </c>
+      <c r="D3">
         <v>2.8497999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.5558081715078642E-2</v>
       </c>
@@ -11249,10 +13377,14 @@
         <v>4016.8744609999999</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3.603888258979139</v>
+      </c>
+      <c r="D4">
         <v>2.5558081715078642E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3.0799999999999998E-2</v>
       </c>
@@ -11260,10 +13392,14 @@
         <v>5911.8356569999996</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>3.7717223526110448</v>
+      </c>
+      <c r="D5">
         <v>3.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.8024465828134703E-2</v>
       </c>
@@ -11271,10 +13407,14 @@
         <v>13780.78097</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4.1392738301514891</v>
+      </c>
+      <c r="D6">
         <v>1.8024465828134703E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8.4329999999999995E-3</v>
       </c>
@@ -11282,10 +13422,14 @@
         <v>70028.025049999997</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>4.845271878425935</v>
+      </c>
+      <c r="D7">
         <v>8.4329999999999995E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4.9469999999999991E-3</v>
       </c>
@@ -11293,10 +13437,14 @@
         <v>21599.796740000002</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4.3344496643402026</v>
+      </c>
+      <c r="D8">
         <v>4.9469999999999991E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5.7499999999999999E-3</v>
       </c>
@@ -11304,10 +13452,14 @@
         <v>20501.162469999999</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>4.3117784873968672</v>
+      </c>
+      <c r="D9">
         <v>5.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5.3999999999999994E-3</v>
       </c>
@@ -11315,10 +13467,14 @@
         <v>49609.231099999997</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>4.6955624959010329</v>
+      </c>
+      <c r="D10">
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.5000000000000001E-3</v>
       </c>
@@ -11326,10 +13482,14 @@
         <v>14433.904210000001</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>4.1593838187942014</v>
+      </c>
+      <c r="D11">
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.7368E-2</v>
       </c>
@@ -11337,10 +13497,14 @@
         <v>714.06671240000003</v>
       </c>
       <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2.8537387880699345</v>
+      </c>
+      <c r="D12">
         <v>2.7368E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -11348,10 +13512,14 @@
         <v>52174.906819999997</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
+        <v>4.7174616821247275</v>
+      </c>
+      <c r="D13">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2.7174E-2</v>
       </c>
@@ -11359,10 +13527,14 @@
         <v>3321.5519709999999</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
+        <v>3.5213410520634154</v>
+      </c>
+      <c r="D14">
         <v>2.7174E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2.6582999999999999E-2</v>
       </c>
@@ -11370,10 +13542,14 @@
         <v>2176.093355</v>
       </c>
       <c r="C15">
+        <f t="shared" si="0"/>
+        <v>3.3376775227778337</v>
+      </c>
+      <c r="D15">
         <v>2.6582999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.2141000000000002E-2</v>
       </c>
@@ -11381,10 +13557,14 @@
         <v>5911.0129829999996</v>
       </c>
       <c r="C16">
+        <f t="shared" si="0"/>
+        <v>3.7716619132380882</v>
+      </c>
+      <c r="D16">
         <v>1.2141000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9.4469999999999988E-3</v>
       </c>
@@ -11392,10 +13572,14 @@
         <v>49754.047740000002</v>
       </c>
       <c r="C17">
+        <f t="shared" si="0"/>
+        <v>4.6968284185417808</v>
+      </c>
+      <c r="D17">
         <v>9.4469999999999988E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.4589999999999998E-3</v>
       </c>
@@ -11403,10 +13587,14 @@
         <v>26132.20752</v>
       </c>
       <c r="C18">
+        <f t="shared" si="0"/>
+        <v>4.4171760983327539</v>
+      </c>
+      <c r="D18">
         <v>2.4589999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.1623E-2</v>
       </c>
@@ -11414,10 +13602,14 @@
         <v>8826.8598020000009</v>
       </c>
       <c r="C19">
+        <f t="shared" si="0"/>
+        <v>3.9458062286943614</v>
+      </c>
+      <c r="D19">
         <v>1.1623E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.1890999999999999E-2</v>
       </c>
@@ -11425,10 +13617,14 @@
         <v>8052.6000260000001</v>
       </c>
       <c r="C20">
+        <f t="shared" si="0"/>
+        <v>3.9059361281480522</v>
+      </c>
+      <c r="D20">
         <v>1.1890999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4.5569999999999986E-3</v>
       </c>
@@ -11436,10 +13632,14 @@
         <v>14735.58178</v>
       </c>
       <c r="C21">
+        <f t="shared" si="0"/>
+        <v>4.1683672870373769</v>
+      </c>
+      <c r="D21">
         <v>4.5569999999999986E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1.8250000000000011E-3</v>
       </c>
@@ -11447,10 +13647,14 @@
         <v>13869.242260000001</v>
       </c>
       <c r="C22">
+        <f t="shared" si="0"/>
+        <v>4.1420527342318874</v>
+      </c>
+      <c r="D22">
         <v>1.8250000000000011E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8.5890000000000011E-3</v>
       </c>
@@ -11458,10 +13662,14 @@
         <v>60127.023609999997</v>
       </c>
       <c r="C23">
+        <f t="shared" si="0"/>
+        <v>4.7790697060615948</v>
+      </c>
+      <c r="D23">
         <v>8.5890000000000011E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>6.0049999999999991E-3</v>
       </c>
@@ -11469,10 +13677,14 @@
         <v>11595.68311</v>
       </c>
       <c r="C24">
+        <f t="shared" si="0"/>
+        <v>4.0642963383267281</v>
+      </c>
+      <c r="D24">
         <v>6.0049999999999991E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1.4115000000000001E-2</v>
       </c>
@@ -11480,10 +13692,14 @@
         <v>14906.89784</v>
       </c>
       <c r="C25">
+        <f t="shared" si="0"/>
+        <v>4.1733872751670598</v>
+      </c>
+      <c r="D25">
         <v>1.4115000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3.1287000000000002E-2</v>
       </c>
@@ -11491,10 +13707,14 @@
         <v>838.19295020000004</v>
       </c>
       <c r="C26">
+        <f t="shared" si="0"/>
+        <v>2.9233440037871192</v>
+      </c>
+      <c r="D26">
         <v>3.1287000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1.7999999999999997E-3</v>
       </c>
@@ -11502,10 +13722,14 @@
         <v>48218.03832</v>
       </c>
       <c r="C27">
+        <f t="shared" si="0"/>
+        <v>4.68320953776833</v>
+      </c>
+      <c r="D27">
         <v>1.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2.1000000000000016E-3</v>
       </c>
@@ -11513,10 +13737,14 @@
         <v>71044.867440000002</v>
       </c>
       <c r="C28">
+        <f t="shared" si="0"/>
+        <v>4.8515327082592457</v>
+      </c>
+      <c r="D28">
         <v>2.1000000000000016E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4.3620000000000004E-3</v>
       </c>
@@ -11524,10 +13752,14 @@
         <v>25412.752069999999</v>
       </c>
       <c r="C29">
+        <f t="shared" si="0"/>
+        <v>4.4050516994500155</v>
+      </c>
+      <c r="D29">
         <v>4.3620000000000004E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3.3999999999999986E-4</v>
       </c>
@@ -11535,10 +13767,14 @@
         <v>17657.656559999999</v>
       </c>
       <c r="C30">
+        <f t="shared" si="0"/>
+        <v>4.2469330655726543</v>
+      </c>
+      <c r="D30">
         <v>3.3999999999999986E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2.4933E-2</v>
       </c>
@@ -11546,10 +13782,14 @@
         <v>5316.4639010000001</v>
       </c>
       <c r="C31">
+        <f t="shared" si="0"/>
+        <v>3.7256228693463775</v>
+      </c>
+      <c r="D31">
         <v>2.4933E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2.6356000000000001E-2</v>
       </c>
@@ -11557,10 +13797,14 @@
         <v>3689.3589809999999</v>
       </c>
       <c r="C32">
+        <f t="shared" si="0"/>
+        <v>3.5669509148858776</v>
+      </c>
+      <c r="D32">
         <v>2.6356000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3.2349000000000003E-2</v>
       </c>
@@ -11568,10 +13812,14 @@
         <v>1044.0712140000001</v>
       </c>
       <c r="C33">
+        <f t="shared" si="0"/>
+        <v>3.0187301220306564</v>
+      </c>
+      <c r="D33">
         <v>3.2349000000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2.3628E-2</v>
       </c>
@@ -11579,10 +13827,14 @@
         <v>3748.9326129999999</v>
       </c>
       <c r="C34">
+        <f t="shared" si="0"/>
+        <v>3.5739076340557796</v>
+      </c>
+      <c r="D34">
         <v>2.3628E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6.4689999999999999E-3</v>
       </c>
@@ -11590,10 +13842,14 @@
         <v>14661.213239999999</v>
       </c>
       <c r="C35">
+        <f t="shared" si="0"/>
+        <v>4.1661699103893897</v>
+      </c>
+      <c r="D35">
         <v>6.4689999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2.068E-2</v>
       </c>
@@ -11601,10 +13857,14 @@
         <v>3228.5268580000002</v>
       </c>
       <c r="C36">
+        <f t="shared" si="0"/>
+        <v>3.5090044036372205</v>
+      </c>
+      <c r="D36">
         <v>2.068E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1.0923000000000002E-2</v>
       </c>
@@ -11612,10 +13872,14 @@
         <v>6356.7450339999996</v>
       </c>
       <c r="C37">
+        <f t="shared" si="0"/>
+        <v>3.8032347924360392</v>
+      </c>
+      <c r="D37">
         <v>1.0923000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4.6809999999999994E-3</v>
       </c>
@@ -11623,10 +13887,14 @@
         <v>21220.16171</v>
       </c>
       <c r="C38">
+        <f t="shared" si="0"/>
+        <v>4.3267486891550044</v>
+      </c>
+      <c r="D38">
         <v>4.6809999999999994E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4.6104363409074974E-3</v>
       </c>
@@ -11634,10 +13902,14 @@
         <v>15816.346289999999</v>
       </c>
       <c r="C39">
+        <f t="shared" si="0"/>
+        <v>4.1991061650429549</v>
+      </c>
+      <c r="D39">
         <v>4.6104363409074974E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>8.4000000000000012E-3</v>
       </c>
@@ -11645,10 +13917,14 @@
         <v>69400.668080000003</v>
       </c>
       <c r="C40">
+        <f t="shared" si="0"/>
+        <v>4.8413636511761942</v>
+      </c>
+      <c r="D40">
         <v>8.4000000000000012E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3.056000000000001E-3</v>
       </c>
@@ -11656,10 +13932,14 @@
         <v>43417.269529999998</v>
       </c>
       <c r="C41">
+        <f t="shared" si="0"/>
+        <v>4.6376625076181472</v>
+      </c>
+      <c r="D41">
         <v>3.056000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1.3057999999999998E-2</v>
       </c>
@@ -11667,10 +13947,14 @@
         <v>4905.1919239999997</v>
       </c>
       <c r="C42">
+        <f t="shared" si="0"/>
+        <v>3.6906560045607151</v>
+      </c>
+      <c r="D42">
         <v>1.3057999999999998E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4.3400000000000001E-3</v>
       </c>
@@ -11678,10 +13962,14 @@
         <v>10899.41453</v>
       </c>
       <c r="C43">
+        <f t="shared" si="0"/>
+        <v>4.0374031701223441</v>
+      </c>
+      <c r="D43">
         <v>4.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1E-3</v>
       </c>
@@ -11689,10 +13977,14 @@
         <v>58802.962330000002</v>
       </c>
       <c r="C44">
+        <f t="shared" si="0"/>
+        <v>4.7693992051776064</v>
+      </c>
+      <c r="D44">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1.1753999999999997E-2</v>
       </c>
@@ -11700,10 +13992,14 @@
         <v>18626.078679999999</v>
       </c>
       <c r="C45">
+        <f t="shared" si="0"/>
+        <v>4.2701214331629629</v>
+      </c>
+      <c r="D45">
         <v>1.1753999999999997E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1.6978E-2</v>
       </c>
@@ -11711,10 +14007,14 @@
         <v>11029.138779999999</v>
       </c>
       <c r="C46">
+        <f t="shared" si="0"/>
+        <v>4.0425416014976445</v>
+      </c>
+      <c r="D46">
         <v>1.6978E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2.8888453265935067E-3</v>
       </c>
@@ -11722,10 +14022,14 @@
         <v>15418.655339999999</v>
       </c>
       <c r="C47">
+        <f t="shared" si="0"/>
+        <v>4.188046500570862</v>
+      </c>
+      <c r="D47">
         <v>2.8888453265935067E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1.0627952154824783E-2</v>
       </c>
@@ -11733,10 +14037,14 @@
         <v>9468.0269919999992</v>
       </c>
       <c r="C48">
+        <f t="shared" si="0"/>
+        <v>3.9762594873706854</v>
+      </c>
+      <c r="D48">
         <v>1.0627952154824783E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2.3562105436667233E-3</v>
       </c>
@@ -11744,10 +14052,14 @@
         <v>18633.37369</v>
       </c>
       <c r="C49">
+        <f t="shared" si="0"/>
+        <v>4.2702914937745602</v>
+      </c>
+      <c r="D49">
         <v>2.3562105436667233E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>8.7295901999103625E-4</v>
       </c>
@@ -11755,10 +14067,14 @@
         <v>22852.806140000001</v>
       </c>
       <c r="C50">
+        <f t="shared" si="0"/>
+        <v>4.3589395355346072</v>
+      </c>
+      <c r="D50">
         <v>8.7295901999103625E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1.0097999999999999E-2</v>
       </c>
@@ -11766,10 +14082,14 @@
         <v>10668.75829</v>
       </c>
       <c r="C51">
+        <f t="shared" si="0"/>
+        <v>4.0281138759210098</v>
+      </c>
+      <c r="D51">
         <v>1.0097999999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1.6231000000000002E-2</v>
       </c>
@@ -11777,10 +14097,14 @@
         <v>11989.599249999999</v>
       </c>
       <c r="C52">
+        <f t="shared" si="0"/>
+        <v>4.0788046671336877</v>
+      </c>
+      <c r="D52">
         <v>1.6231000000000002E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2.5607000000000001E-2</v>
       </c>
@@ -11788,10 +14112,14 @@
         <v>2319.161063</v>
       </c>
       <c r="C53">
+        <f t="shared" si="0"/>
+        <v>3.3653309109248148</v>
+      </c>
+      <c r="D53">
         <v>2.5607000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2.274661679646986E-2</v>
       </c>
@@ -11799,10 +14127,14 @@
         <v>4348.4116020000001</v>
       </c>
       <c r="C54">
+        <f t="shared" si="0"/>
+        <v>3.6383306458137308</v>
+      </c>
+      <c r="D54">
         <v>2.274661679646986E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1.0485999999999999E-2</v>
       </c>
@@ -11810,10 +14142,14 @@
         <v>10379.56732</v>
       </c>
       <c r="C55">
+        <f t="shared" si="0"/>
+        <v>4.0161792500005919</v>
+      </c>
+      <c r="D55">
         <v>1.0485999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1.200000000000001E-3</v>
       </c>
@@ -11821,10 +14157,14 @@
         <v>44941.436909999997</v>
       </c>
       <c r="C56">
+        <f t="shared" si="0"/>
+        <v>4.6526469539778068</v>
+      </c>
+      <c r="D56">
         <v>1.200000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1.4566000000000001E-2</v>
       </c>
@@ -11832,10 +14172,14 @@
         <v>3420.5160369999999</v>
       </c>
       <c r="C57">
+        <f t="shared" si="0"/>
+        <v>3.5340916309436641</v>
+      </c>
+      <c r="D57">
         <v>1.4566000000000001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1.9883999999999999E-2</v>
       </c>
@@ -11843,10 +14187,14 @@
         <v>13822.50916</v>
       </c>
       <c r="C58">
+        <f t="shared" si="0"/>
+        <v>4.140586886412267</v>
+      </c>
+      <c r="D58">
         <v>1.9883999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4.0000000000000034E-4</v>
       </c>
@@ -11854,10 +14202,14 @@
         <v>45567.569320000002</v>
       </c>
       <c r="C59">
+        <f t="shared" si="0"/>
+        <v>4.6586558629237773</v>
+      </c>
+      <c r="D59">
         <v>4.0000000000000034E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1.9920999999999998E-2</v>
       </c>
@@ -11865,10 +14217,14 @@
         <v>5420.7921679999999</v>
       </c>
       <c r="C60">
+        <f t="shared" si="0"/>
+        <v>3.7340627568432172</v>
+      </c>
+      <c r="D60">
         <v>1.9920999999999998E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2.4434999999999995E-2</v>
       </c>
@@ -11876,10 +14232,14 @@
         <v>2640.3441910000001</v>
       </c>
       <c r="C61">
+        <f t="shared" si="0"/>
+        <v>3.4216605444867234</v>
+      </c>
+      <c r="D61">
         <v>2.4434999999999995E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2.5713999999999997E-2</v>
       </c>
@@ -11887,10 +14247,14 @@
         <v>2042.620289</v>
       </c>
       <c r="C62">
+        <f t="shared" si="0"/>
+        <v>3.3101876413663542</v>
+      </c>
+      <c r="D62">
         <v>2.5713999999999997E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2.2371000000000002E-2</v>
       </c>
@@ -11898,10 +14262,14 @@
         <v>1831.383229</v>
       </c>
       <c r="C63">
+        <f t="shared" si="0"/>
+        <v>3.2627792327916256</v>
+      </c>
+      <c r="D63">
         <v>2.2371000000000002E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2.1456000000000003E-2</v>
       </c>
@@ -11909,10 +14277,14 @@
         <v>14730.600329999999</v>
       </c>
       <c r="C64">
+        <f t="shared" si="0"/>
+        <v>4.1682204464144954</v>
+      </c>
+      <c r="D64">
         <v>2.1456000000000003E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7.8100000000000001E-3</v>
       </c>
@@ -11920,10 +14292,14 @@
         <v>13688.297710000001</v>
       </c>
       <c r="C65">
+        <f t="shared" si="0"/>
+        <v>4.1363494422083926</v>
+      </c>
+      <c r="D65">
         <v>7.8100000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1.4616000000000002E-2</v>
       </c>
@@ -11931,10 +14307,14 @@
         <v>8927.3019550000008</v>
       </c>
       <c r="C66">
+        <f t="shared" si="0"/>
+        <v>3.9507202244985704</v>
+      </c>
+      <c r="D66">
         <v>1.4616000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1.0310999999999999E-2</v>
       </c>
@@ -11942,10 +14322,14 @@
         <v>21925.222150000001</v>
       </c>
       <c r="C67">
+        <f t="shared" ref="C67:C130" si="1">LOG10(B67)</f>
+        <v>4.3409440024043446</v>
+      </c>
+      <c r="D67">
         <v>1.0310999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1.5463000000000001E-2</v>
       </c>
@@ -11953,10 +14337,14 @@
         <v>5572.1769880000002</v>
       </c>
       <c r="C68">
+        <f t="shared" si="1"/>
+        <v>3.7460249023841992</v>
+      </c>
+      <c r="D68">
         <v>1.5463000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2.7180608119331404E-2</v>
       </c>
@@ -11964,10 +14352,14 @@
         <v>2529.4380219999998</v>
       </c>
       <c r="C69">
+        <f t="shared" si="1"/>
+        <v>3.4030240424980307</v>
+      </c>
+      <c r="D69">
         <v>2.7180608119331404E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1.4822E-2</v>
       </c>
@@ -11975,10 +14367,14 @@
         <v>2881.176575</v>
       </c>
       <c r="C70">
+        <f t="shared" si="1"/>
+        <v>3.459569875148941</v>
+      </c>
+      <c r="D70">
         <v>1.4822E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>4.9629242012438797E-3</v>
       </c>
@@ -11986,10 +14382,14 @@
         <v>13922.32222</v>
       </c>
       <c r="C71">
+        <f t="shared" si="1"/>
+        <v>4.1437116809079306</v>
+      </c>
+      <c r="D71">
         <v>4.9629242012438797E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>9.6718278839089695E-3</v>
       </c>
@@ -11997,10 +14397,14 @@
         <v>11223.54103</v>
       </c>
       <c r="C72">
+        <f t="shared" si="1"/>
+        <v>4.0501298985571959</v>
+      </c>
+      <c r="D72">
         <v>9.6718278839089695E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2.2477586659378261E-2</v>
       </c>
@@ -12008,10 +14412,14 @@
         <v>3896.6307280000001</v>
       </c>
       <c r="C73">
+        <f t="shared" si="1"/>
+        <v>3.5906892509580213</v>
+      </c>
+      <c r="D73">
         <v>2.2477586659378261E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2.1906835330640022E-2</v>
       </c>
@@ -12019,10 +14427,14 @@
         <v>5048.0438020000001</v>
       </c>
       <c r="C74">
+        <f t="shared" si="1"/>
+        <v>3.7031231146363086</v>
+      </c>
+      <c r="D74">
         <v>2.1906835330640022E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>6.3600000000000011E-3</v>
       </c>
@@ -12030,10 +14442,14 @@
         <v>11859.436320000001</v>
       </c>
       <c r="C75">
+        <f t="shared" si="1"/>
+        <v>4.0740640474657459</v>
+      </c>
+      <c r="D75">
         <v>6.3600000000000011E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2.2759394368405614E-2</v>
       </c>
@@ -12041,10 +14457,14 @@
         <v>3344.8607050000001</v>
       </c>
       <c r="C76">
+        <f t="shared" si="1"/>
+        <v>3.5243780365105737</v>
+      </c>
+      <c r="D76">
         <v>2.2759394368405614E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>6.9709999999999998E-3</v>
       </c>
@@ -12052,10 +14472,14 @@
         <v>6677.1850299999996</v>
       </c>
       <c r="C77">
+        <f t="shared" si="1"/>
+        <v>3.8245934110387232</v>
+      </c>
+      <c r="D77">
         <v>6.9709999999999998E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -12063,10 +14487,14 @@
         <v>104671.8783</v>
       </c>
       <c r="C78">
+        <f t="shared" si="1"/>
+        <v>5.0198300174992561</v>
+      </c>
+      <c r="D78">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>7.2619999999999994E-3</v>
       </c>
@@ -12074,10 +14502,14 @@
         <v>14432.362709999999</v>
       </c>
       <c r="C79">
+        <f t="shared" si="1"/>
+        <v>4.1593374348993706</v>
+      </c>
+      <c r="D79">
         <v>7.2619999999999994E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2.2614000000000002E-2</v>
       </c>
@@ -12085,10 +14517,14 @@
         <v>8786.5823519999994</v>
       </c>
       <c r="C80">
+        <f t="shared" si="1"/>
+        <v>3.9438199838005459</v>
+      </c>
+      <c r="D80">
         <v>2.2614000000000002E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>6.7999999999999996E-3</v>
       </c>
@@ -12096,10 +14532,14 @@
         <v>53135.952709999998</v>
       </c>
       <c r="C81">
+        <f t="shared" si="1"/>
+        <v>4.7253884717405494</v>
+      </c>
+      <c r="D81">
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1.4299999999999998E-2</v>
       </c>
@@ -12107,10 +14547,14 @@
         <v>42379.155760000001</v>
       </c>
       <c r="C82">
+        <f t="shared" si="1"/>
+        <v>4.6271523008309954</v>
+      </c>
+      <c r="D82">
         <v>1.4299999999999998E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2.9149999999999992E-3</v>
       </c>
@@ -12118,10 +14562,14 @@
         <v>9605.1911089999994</v>
       </c>
       <c r="C83">
+        <f t="shared" si="1"/>
+        <v>3.9825060101928669</v>
+      </c>
+      <c r="D83">
         <v>2.9149999999999992E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1.8082000000000001E-2</v>
       </c>
@@ -12129,10 +14577,14 @@
         <v>9380.0452550000009</v>
       </c>
       <c r="C84">
+        <f t="shared" si="1"/>
+        <v>3.9722049336828351</v>
+      </c>
+      <c r="D84">
         <v>1.8082000000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1.3890000000000001E-2</v>
       </c>
@@ -12140,10 +14592,14 @@
         <v>26110.530040000001</v>
       </c>
       <c r="C85">
+        <f t="shared" si="1"/>
+        <v>4.4168156880278744</v>
+      </c>
+      <c r="D85">
         <v>1.3890000000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1.9628999999999997E-2</v>
       </c>
@@ -12151,10 +14607,14 @@
         <v>4745.637033</v>
       </c>
       <c r="C86">
+        <f t="shared" si="1"/>
+        <v>3.6762945184170666</v>
+      </c>
+      <c r="D86">
         <v>1.9628999999999997E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1.6599999999999997E-2</v>
       </c>
@@ -12162,10 +14622,14 @@
         <v>4910.0862040000002</v>
       </c>
       <c r="C87">
+        <f t="shared" si="1"/>
+        <v>3.6910891168873019</v>
+      </c>
+      <c r="D87">
         <v>1.6599999999999997E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1.2495999999999998E-2</v>
       </c>
@@ -12173,10 +14637,14 @@
         <v>4354.5652060000002</v>
       </c>
       <c r="C88">
+        <f t="shared" si="1"/>
+        <v>3.6389447981354803</v>
+      </c>
+      <c r="D88">
         <v>1.2495999999999998E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2.0971E-2</v>
       </c>
@@ -12184,10 +14652,14 @@
         <v>2007.987038</v>
       </c>
       <c r="C89">
+        <f t="shared" si="1"/>
+        <v>3.3027609050151909</v>
+      </c>
+      <c r="D89">
         <v>2.0971E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1.9440000000000008E-3</v>
       </c>
@@ -12195,10 +14667,14 @@
         <v>26460.475880000002</v>
       </c>
       <c r="C90">
+        <f t="shared" si="1"/>
+        <v>4.4225976505166216</v>
+      </c>
+      <c r="D90">
         <v>1.9440000000000008E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>7.5039999999999994E-3</v>
       </c>
@@ -12206,10 +14682,14 @@
         <v>45579.689310000002</v>
       </c>
       <c r="C91">
+        <f t="shared" si="1"/>
+        <v>4.6587713605237679</v>
+      </c>
+      <c r="D91">
         <v>7.5039999999999994E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>6.422445790619671E-3</v>
       </c>
@@ -12217,10 +14697,14 @@
         <v>15262.45544</v>
       </c>
       <c r="C92">
+        <f t="shared" si="1"/>
+        <v>4.1836244089961587</v>
+      </c>
+      <c r="D92">
         <v>6.422445790619671E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1.5359999999999999E-2</v>
       </c>
@@ -12228,10 +14712,14 @@
         <v>7846.975023</v>
       </c>
       <c r="C93">
+        <f t="shared" si="1"/>
+        <v>3.8947022702477496</v>
+      </c>
+      <c r="D93">
         <v>1.5359999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>6.6769999999999998E-3</v>
       </c>
@@ -12239,10 +14727,14 @@
         <v>12986.912829999999</v>
       </c>
       <c r="C94">
+        <f t="shared" si="1"/>
+        <v>4.1135059254964723</v>
+      </c>
+      <c r="D94">
         <v>6.6769999999999998E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2.2448999999999997E-2</v>
       </c>
@@ -12250,10 +14742,14 @@
         <v>1423.229589</v>
       </c>
       <c r="C95">
+        <f t="shared" si="1"/>
+        <v>3.1532749641693512</v>
+      </c>
+      <c r="D95">
         <v>2.2448999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1.1809999999999999E-2</v>
       </c>
@@ -12261,10 +14757,14 @@
         <v>20273.881249999999</v>
       </c>
       <c r="C96">
+        <f t="shared" si="1"/>
+        <v>4.3069368983773044</v>
+      </c>
+      <c r="D96">
         <v>1.1809999999999999E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1.1910000000000007E-3</v>
       </c>
@@ -12272,10 +14772,14 @@
         <v>13045.96536</v>
       </c>
       <c r="C97">
+        <f t="shared" si="1"/>
+        <v>4.1154762210375475</v>
+      </c>
+      <c r="D97">
         <v>1.1910000000000007E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>6.3514194045127719E-3</v>
       </c>
@@ -12283,10 +14787,14 @@
         <v>15956.926299999999</v>
       </c>
       <c r="C98">
+        <f t="shared" si="1"/>
+        <v>4.2029492391759051</v>
+      </c>
+      <c r="D98">
         <v>6.3514194045127719E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2.3713448257178533E-2</v>
       </c>
@@ -12294,10 +14802,14 @@
         <v>3071.0511849999998</v>
       </c>
       <c r="C99">
+        <f t="shared" si="1"/>
+        <v>3.4872870548598085</v>
+      </c>
+      <c r="D99">
         <v>2.3713448257178533E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2.671298516620154E-2</v>
       </c>
@@ -12305,10 +14817,14 @@
         <v>1921.8851870000001</v>
       </c>
       <c r="C100">
+        <f t="shared" si="1"/>
+        <v>3.2837274394502618</v>
+      </c>
+      <c r="D100">
         <v>2.671298516620154E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>6.659E-3</v>
       </c>
@@ -12316,10 +14832,14 @@
         <v>13250.629849999999</v>
       </c>
       <c r="C101">
+        <f t="shared" si="1"/>
+        <v>4.1222365223391018</v>
+      </c>
+      <c r="D101">
         <v>6.659E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1.2397012759451492E-2</v>
       </c>
@@ -12327,10 +14847,14 @@
         <v>6865.1377830000001</v>
       </c>
       <c r="C102">
+        <f t="shared" si="1"/>
+        <v>3.836649257930548</v>
+      </c>
+      <c r="D102">
         <v>1.2397012759451492E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>9.8091157660762356E-3</v>
       </c>
@@ -12338,10 +14862,14 @@
         <v>10866.702799999999</v>
       </c>
       <c r="C103">
+        <f t="shared" si="1"/>
+        <v>4.0360977894416372</v>
+      </c>
+      <c r="D103">
         <v>9.8091157660762356E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1.1920999999999999E-2</v>
       </c>
@@ -12349,10 +14877,14 @@
         <v>2239.3052539999999</v>
       </c>
       <c r="C104">
+        <f t="shared" si="1"/>
+        <v>3.3501132990688149</v>
+      </c>
+      <c r="D104">
         <v>1.1920999999999999E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1.3118878789960479E-3</v>
       </c>
@@ -12360,10 +14892,14 @@
         <v>18542.63478</v>
       </c>
       <c r="C105">
+        <f t="shared" si="1"/>
+        <v>4.2681714444317107</v>
+      </c>
+      <c r="D105">
         <v>1.3118878789960479E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>3.5000000000000001E-3</v>
       </c>
@@ -12371,10 +14907,14 @@
         <v>118510.00229999999</v>
       </c>
       <c r="C106">
+        <f t="shared" si="1"/>
+        <v>5.0737550065518251</v>
+      </c>
+      <c r="D106">
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>6.0030000000000014E-3</v>
       </c>
@@ -12382,10 +14922,14 @@
         <v>54916.155639999997</v>
       </c>
       <c r="C107">
+        <f t="shared" si="1"/>
+        <v>4.7397001272032462</v>
+      </c>
+      <c r="D107">
         <v>6.0030000000000014E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1.1375000000000001E-2</v>
       </c>
@@ -12393,10 +14937,14 @@
         <v>8065.9858400000003</v>
       </c>
       <c r="C108">
+        <f t="shared" si="1"/>
+        <v>3.9066574552595914</v>
+      </c>
+      <c r="D108">
         <v>1.1375000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2.3845000000000002E-2</v>
       </c>
@@ -12404,10 +14952,14 @@
         <v>1482.3761589999999</v>
       </c>
       <c r="C109">
+        <f t="shared" si="1"/>
+        <v>3.1709584216251936</v>
+      </c>
+      <c r="D109">
         <v>2.3845000000000002E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1.1068E-2</v>
       </c>
@@ -12415,10 +14967,14 @@
         <v>18757.77954</v>
       </c>
       <c r="C110">
+        <f t="shared" si="1"/>
+        <v>4.2731814272946593</v>
+      </c>
+      <c r="D110">
         <v>1.1068E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1.4596584092948894E-2</v>
       </c>
@@ -12426,10 +14982,14 @@
         <v>16066.92052</v>
       </c>
       <c r="C111">
+        <f t="shared" si="1"/>
+        <v>4.2059326453177928</v>
+      </c>
+      <c r="D111">
         <v>1.4596584092948894E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5.4509999999999984E-3</v>
       </c>
@@ -12437,10 +14997,14 @@
         <v>19617.759620000001</v>
       </c>
       <c r="C112">
+        <f t="shared" si="1"/>
+        <v>4.2926494087407967</v>
+      </c>
+      <c r="D112">
         <v>5.4509999999999984E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1.1724E-2</v>
       </c>
@@ -12448,10 +15012,14 @@
         <v>5976.0301339999996</v>
       </c>
       <c r="C113">
+        <f t="shared" si="1"/>
+        <v>3.7764127787331994</v>
+      </c>
+      <c r="D113">
         <v>1.1724E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>7.8569447180327247E-3</v>
       </c>
@@ -12459,10 +15027,14 @@
         <v>11907.97711</v>
       </c>
       <c r="C114">
+        <f t="shared" si="1"/>
+        <v>4.0758379911568969</v>
+      </c>
+      <c r="D114">
         <v>7.8569447180327247E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>3.2369000000000002E-2</v>
       </c>
@@ -12470,10 +15042,14 @@
         <v>2120.6233010000001</v>
       </c>
       <c r="C115">
+        <f t="shared" si="1"/>
+        <v>3.3264635290414795</v>
+      </c>
+      <c r="D115">
         <v>3.2369000000000002E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -12481,10 +15057,14 @@
         <v>46598.96226</v>
       </c>
       <c r="C116">
+        <f t="shared" si="1"/>
+        <v>4.668376245235625</v>
+      </c>
+      <c r="D116">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>7.3340000000000011E-3</v>
       </c>
@@ -12492,10 +15072,14 @@
         <v>4113.8933129999996</v>
       </c>
       <c r="C117">
+        <f t="shared" si="1"/>
+        <v>3.6142530247976508</v>
+      </c>
+      <c r="D117">
         <v>7.3340000000000011E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1.4886745564003909E-2</v>
       </c>
@@ -12503,10 +15087,14 @@
         <v>10542.608689999999</v>
       </c>
       <c r="C118">
+        <f t="shared" si="1"/>
+        <v>4.0229480871091363</v>
+      </c>
+      <c r="D118">
         <v>1.4886745564003909E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1.5282E-2</v>
       </c>
@@ -12514,10 +15102,14 @@
         <v>11668.430420000001</v>
       </c>
       <c r="C119">
+        <f t="shared" si="1"/>
+        <v>4.0670124408116406</v>
+      </c>
+      <c r="D119">
         <v>1.5282E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2.7805E-2</v>
       </c>
@@ -12525,10 +15117,14 @@
         <v>1231.8641399999999</v>
       </c>
       <c r="C120">
+        <f t="shared" si="1"/>
+        <v>3.0905628129405245</v>
+      </c>
+      <c r="D120">
         <v>2.7805E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2.5754000000000003E-2</v>
       </c>
@@ -12536,10 +15132,14 @@
         <v>5142.2812050000002</v>
       </c>
       <c r="C121">
+        <f t="shared" si="1"/>
+        <v>3.7111558222952716</v>
+      </c>
+      <c r="D121">
         <v>2.5754000000000003E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2.5876E-2</v>
       </c>
@@ -12547,10 +15147,14 @@
         <v>1491.1336879999999</v>
       </c>
       <c r="C122">
+        <f t="shared" si="1"/>
+        <v>3.173516581989499</v>
+      </c>
+      <c r="D122">
         <v>2.5876E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>9.2059999999999989E-3</v>
       </c>
@@ -12558,10 +15162,14 @@
         <v>26407.31669</v>
       </c>
       <c r="C123">
+        <f t="shared" si="1"/>
+        <v>4.4217242737578122</v>
+      </c>
+      <c r="D123">
         <v>9.2059999999999989E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>7.2314691392634598E-4</v>
       </c>
@@ -12569,10 +15177,14 @@
         <v>62046.893250000001</v>
       </c>
       <c r="C124">
+        <f t="shared" si="1"/>
+        <v>4.7927200408200816</v>
+      </c>
+      <c r="D124">
         <v>7.2314691392634598E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1.6730000000000002E-2</v>
       </c>
@@ -12580,10 +15192,14 @@
         <v>9208.5830320000005</v>
       </c>
       <c r="C125">
+        <f t="shared" si="1"/>
+        <v>3.9641928084024061</v>
+      </c>
+      <c r="D125">
         <v>1.6730000000000002E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>3.7152000000000004E-2</v>
       </c>
@@ -12591,10 +15207,14 @@
         <v>1186.5300110000001</v>
       </c>
       <c r="C126">
+        <f t="shared" si="1"/>
+        <v>3.0742787273379046</v>
+      </c>
+      <c r="D126">
         <v>3.7152000000000004E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2.4034E-2</v>
       </c>
@@ -12602,10 +15222,14 @@
         <v>4922.6324519999998</v>
       </c>
       <c r="C127">
+        <f t="shared" si="1"/>
+        <v>3.6921974104168251</v>
+      </c>
+      <c r="D127">
         <v>2.4034E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1.5648000000000002E-2</v>
       </c>
@@ -12613,10 +15237,14 @@
         <v>5692.0350669999998</v>
       </c>
       <c r="C128">
+        <f t="shared" si="1"/>
+        <v>3.7552675669845734</v>
+      </c>
+      <c r="D128">
         <v>1.5648000000000002E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>3.9999999999999856E-4</v>
       </c>
@@ -12624,10 +15252,14 @@
         <v>57334.704960000003</v>
       </c>
       <c r="C129">
+        <f t="shared" si="1"/>
+        <v>4.7584175820035917</v>
+      </c>
+      <c r="D129">
         <v>3.9999999999999856E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2.6000000000000007E-3</v>
       </c>
@@ -12635,10 +15267,14 @@
         <v>65909.003030000007</v>
       </c>
       <c r="C130">
+        <f t="shared" si="1"/>
+        <v>4.8189447423510767</v>
+      </c>
+      <c r="D130">
         <v>2.6000000000000007E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1.2626000000000002E-2</v>
       </c>
@@ -12646,10 +15282,14 @@
         <v>3853.680296</v>
       </c>
       <c r="C131">
+        <f t="shared" ref="C131:C194" si="2">LOG10(B131)</f>
+        <v>3.5858756824413205</v>
+      </c>
+      <c r="D131">
         <v>1.2626000000000002E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2.0927000000000001E-2</v>
       </c>
@@ -12657,10 +15297,14 @@
         <v>10989.622079999999</v>
       </c>
       <c r="C132">
+        <f t="shared" si="2"/>
+        <v>4.0409827578108732</v>
+      </c>
+      <c r="D132">
         <v>2.0927000000000001E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>4.6500000000000005E-3</v>
       </c>
@@ -12668,10 +15312,14 @@
         <v>44041.90281</v>
       </c>
       <c r="C133">
+        <f t="shared" si="2"/>
+        <v>4.6438660741968798</v>
+      </c>
+      <c r="D133">
         <v>4.6500000000000005E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>5.8121431581616893E-4</v>
       </c>
@@ -12679,10 +15327,14 @@
         <v>45043.21832</v>
       </c>
       <c r="C134">
+        <f t="shared" si="2"/>
+        <v>4.6536294131195621</v>
+      </c>
+      <c r="D134">
         <v>5.8121431581616893E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1.4623000000000001E-2</v>
       </c>
@@ -12690,10 +15342,14 @@
         <v>34294.764669999997</v>
       </c>
       <c r="C135">
+        <f t="shared" si="2"/>
+        <v>4.5352278270845456</v>
+      </c>
+      <c r="D135">
         <v>1.4623000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1.3254691949380271E-2</v>
       </c>
@@ -12701,10 +15357,14 @@
         <v>21695.268120000001</v>
       </c>
       <c r="C136">
+        <f t="shared" si="2"/>
+        <v>4.3363650217073122</v>
+      </c>
+      <c r="D136">
         <v>1.3254691949380271E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2.0350999999999998E-2</v>
       </c>
@@ -12712,10 +15372,14 @@
         <v>5233.4595159999999</v>
       </c>
       <c r="C137">
+        <f t="shared" si="2"/>
+        <v>3.7187888689841957</v>
+      </c>
+      <c r="D137">
         <v>2.0350999999999998E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1.1625E-2</v>
       </c>
@@ -12723,10 +15387,14 @@
         <v>30416.79351</v>
       </c>
       <c r="C138">
+        <f t="shared" si="2"/>
+        <v>4.4831134294963526</v>
+      </c>
+      <c r="D138">
         <v>1.1625E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>9.6340000000000002E-3</v>
       </c>
@@ -12734,10 +15402,14 @@
         <v>12533.841420000001</v>
       </c>
       <c r="C139">
+        <f t="shared" si="2"/>
+        <v>4.0980841956412286</v>
+      </c>
+      <c r="D139">
         <v>9.6340000000000002E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1.4501999999999999E-2</v>
       </c>
@@ -12745,10 +15417,14 @@
         <v>8095.5795669999998</v>
       </c>
       <c r="C140">
+        <f t="shared" si="2"/>
+        <v>3.908247945583526</v>
+      </c>
+      <c r="D140">
         <v>1.4501999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>3.200000000000001E-3</v>
       </c>
@@ -12756,10 +15432,14 @@
         <v>14112.667890000001</v>
       </c>
       <c r="C141">
+        <f t="shared" si="2"/>
+        <v>4.1496091215064066</v>
+      </c>
+      <c r="D141">
         <v>3.200000000000001E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1.8831000000000001E-2</v>
       </c>
@@ -12767,10 +15447,14 @@
         <v>3637.9134399999998</v>
       </c>
       <c r="C142">
+        <f t="shared" si="2"/>
+        <v>3.5608523613086671</v>
+      </c>
+      <c r="D142">
         <v>1.8831000000000001E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2.6932639384036085E-2</v>
       </c>
@@ -12778,10 +15462,14 @@
         <v>3355.1430740000001</v>
       </c>
       <c r="C143">
+        <f t="shared" si="2"/>
+        <v>3.5257110446015356</v>
+      </c>
+      <c r="D143">
         <v>2.6932639384036085E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1.2988999999999999E-2</v>
       </c>
@@ -12789,10 +15477,14 @@
         <v>13676.39021</v>
       </c>
       <c r="C144">
+        <f t="shared" si="2"/>
+        <v>4.1359714834401604</v>
+      </c>
+      <c r="D144">
         <v>1.2988999999999999E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2.4420999999999998E-2</v>
       </c>
@@ -12800,10 +15492,14 @@
         <v>5641.0443999999998</v>
       </c>
       <c r="C145">
+        <f t="shared" si="2"/>
+        <v>3.7513595180198647</v>
+      </c>
+      <c r="D145">
         <v>2.4420999999999998E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1.7947524870175813E-2</v>
       </c>
@@ -12811,10 +15507,14 @@
         <v>5910.0511900000001</v>
       </c>
       <c r="C146">
+        <f t="shared" si="2"/>
+        <v>3.7715912425459339</v>
+      </c>
+      <c r="D146">
         <v>1.7947524870175813E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>8.5050000000000004E-3</v>
       </c>
@@ -12822,10 +15522,14 @@
         <v>92895.340349999999</v>
       </c>
       <c r="C147">
+        <f t="shared" si="2"/>
+        <v>4.967993930236533</v>
+      </c>
+      <c r="D147">
         <v>8.5050000000000004E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2.3695999999999998E-2</v>
       </c>
@@ -12833,10 +15537,14 @@
         <v>2237.5138069999998</v>
       </c>
       <c r="C148">
+        <f t="shared" si="2"/>
+        <v>3.3497657238920437</v>
+      </c>
+      <c r="D148">
         <v>2.3695999999999998E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>9.5995521365650188E-3</v>
       </c>
@@ -12844,10 +15552,14 @@
         <v>6361.8044069999996</v>
       </c>
       <c r="C149">
+        <f t="shared" si="2"/>
+        <v>3.8035803126389336</v>
+      </c>
+      <c r="D149">
         <v>9.5995521365650188E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1.4608999999999999E-2</v>
       </c>
@@ -12855,10 +15567,14 @@
         <v>46768.432849999997</v>
       </c>
       <c r="C150">
+        <f t="shared" si="2"/>
+        <v>4.66995281750311</v>
+      </c>
+      <c r="D150">
         <v>1.4608999999999999E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2.6796999999999998E-2</v>
       </c>
@@ -12866,10 +15582,14 @@
         <v>3701.0690920000002</v>
       </c>
       <c r="C151">
+        <f t="shared" si="2"/>
+        <v>3.5683271926320645</v>
+      </c>
+      <c r="D151">
         <v>2.6796999999999998E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2.6651000000000001E-2</v>
       </c>
@@ -12877,10 +15597,14 @@
         <v>3511.637424</v>
       </c>
       <c r="C152">
+        <f t="shared" si="2"/>
+        <v>3.5455096687133087</v>
+      </c>
+      <c r="D152">
         <v>2.6651000000000001E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2.8E-3</v>
       </c>
@@ -12888,10 +15612,14 @@
         <v>107741.11840000001</v>
       </c>
       <c r="C153">
+        <f t="shared" si="2"/>
+        <v>5.0323814794002795</v>
+      </c>
+      <c r="D153">
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2.4757000000000001E-2</v>
       </c>
@@ -12899,10 +15627,14 @@
         <v>2397.3228239999999</v>
       </c>
       <c r="C154">
+        <f t="shared" si="2"/>
+        <v>3.379726520158675</v>
+      </c>
+      <c r="D154">
         <v>2.4757000000000001E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2.2246999999999999E-2</v>
       </c>
@@ -12910,10 +15642,14 @@
         <v>1614.8598300000001</v>
       </c>
       <c r="C155">
+        <f t="shared" si="2"/>
+        <v>3.2081348314971945</v>
+      </c>
+      <c r="D155">
         <v>2.2246999999999999E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>7.363999999999999E-3</v>
       </c>
@@ -12921,10 +15657,14 @@
         <v>9190.1737940000003</v>
       </c>
       <c r="C156">
+        <f t="shared" si="2"/>
+        <v>3.9633237243416617</v>
+      </c>
+      <c r="D156">
         <v>7.363999999999999E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>3.1965E-2</v>
       </c>
@@ -12932,10 +15672,14 @@
         <v>1458.2278630000001</v>
       </c>
       <c r="C157">
+        <f t="shared" si="2"/>
+        <v>3.1638253922339445</v>
+      </c>
+      <c r="D157">
         <v>3.1965E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2.5530604150143441E-2</v>
       </c>
@@ -12943,10 +15687,14 @@
         <v>3724.1652549999999</v>
       </c>
       <c r="C158">
+        <f t="shared" si="2"/>
+        <v>3.5710289439908967</v>
+      </c>
+      <c r="D158">
         <v>2.5530604150143441E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2.5529088964104728E-2</v>
       </c>
@@ -12954,10 +15702,14 @@
         <v>3726.1951570000001</v>
       </c>
       <c r="C159">
+        <f t="shared" si="2"/>
+        <v>3.5712655970413447</v>
+      </c>
+      <c r="D159">
         <v>2.5529088964104728E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1.2028684910801878E-2</v>
       </c>
@@ -12965,10 +15717,14 @@
         <v>19707.49972</v>
       </c>
       <c r="C160">
+        <f t="shared" si="2"/>
+        <v>4.2946315290645574</v>
+      </c>
+      <c r="D160">
         <v>1.2028684910801878E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2.1876E-2</v>
       </c>
@@ -12976,10 +15732,14 @@
         <v>3502.4352370000001</v>
       </c>
       <c r="C161">
+        <f t="shared" si="2"/>
+        <v>3.5443701135585064</v>
+      </c>
+      <c r="D161">
         <v>2.1876E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>9.4870000000000006E-3</v>
       </c>
@@ -12987,10 +15747,14 @@
         <v>14811.23991</v>
       </c>
       <c r="C162">
+        <f t="shared" si="2"/>
+        <v>4.1705914166259337</v>
+      </c>
+      <c r="D162">
         <v>9.4870000000000006E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2.1999999999999993E-3</v>
       </c>
@@ -12998,10 +15762,14 @@
         <v>54160.367440000002</v>
       </c>
       <c r="C163">
+        <f t="shared" si="2"/>
+        <v>4.7336816020696864</v>
+      </c>
+      <c r="D163">
         <v>2.1999999999999993E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1.2778000000000001E-2</v>
       </c>
@@ -13009,10 +15777,14 @@
         <v>9086.7013480000005</v>
       </c>
       <c r="C164">
+        <f t="shared" si="2"/>
+        <v>3.9584062543596543</v>
+      </c>
+      <c r="D164">
         <v>1.2778000000000001E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>4.0999999999999995E-3</v>
       </c>
@@ -13020,10 +15792,14 @@
         <v>38360.528689999999</v>
       </c>
       <c r="C165">
+        <f t="shared" si="2"/>
+        <v>4.5838845840452214</v>
+      </c>
+      <c r="D165">
         <v>4.0999999999999995E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -13031,10 +15807,14 @@
         <v>27928.372869999999</v>
       </c>
       <c r="C166">
+        <f t="shared" si="2"/>
+        <v>4.4460456340839247</v>
+      </c>
+      <c r="D166">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>3.2350000000000013E-3</v>
       </c>
@@ -13042,10 +15822,14 @@
         <v>19763.544620000001</v>
       </c>
       <c r="C167">
+        <f t="shared" si="2"/>
+        <v>4.2958648385740075</v>
+      </c>
+      <c r="D167">
         <v>3.2350000000000013E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>3.0853000000000002E-2</v>
       </c>
@@ -13053,10 +15837,14 @@
         <v>1425.494512</v>
       </c>
       <c r="C168">
+        <f t="shared" si="2"/>
+        <v>3.1539655496618209</v>
+      </c>
+      <c r="D168">
         <v>3.0853000000000002E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2.8760991864449155E-3</v>
       </c>
@@ -13064,10 +15852,14 @@
         <v>15589.942639999999</v>
       </c>
       <c r="C169">
+        <f t="shared" si="2"/>
+        <v>4.1928445172942101</v>
+      </c>
+      <c r="D169">
         <v>2.8760991864449155E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2.3688000000000001E-2</v>
       </c>
@@ -13075,10 +15867,14 @@
         <v>2130.858917</v>
       </c>
       <c r="C170">
+        <f t="shared" si="2"/>
+        <v>3.3285546962666541</v>
+      </c>
+      <c r="D170">
         <v>2.3688000000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1.0770000000000009E-3</v>
       </c>
@@ -13086,10 +15882,14 @@
         <v>17087.210950000001</v>
       </c>
       <c r="C171">
+        <f t="shared" si="2"/>
+        <v>4.2326711810429307</v>
+      </c>
+      <c r="D171">
         <v>1.0770000000000009E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2.2201000000000002E-2</v>
       </c>
@@ -13097,10 +15897,14 @@
         <v>3910.4627180000002</v>
       </c>
       <c r="C172">
+        <f t="shared" si="2"/>
+        <v>3.5922281497192006</v>
+      </c>
+      <c r="D172">
         <v>2.2201000000000002E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1.5006999999999998E-2</v>
       </c>
@@ -13108,10 +15912,14 @@
         <v>14696.823609999999</v>
       </c>
       <c r="C173">
+        <f t="shared" si="2"/>
+        <v>4.167223481842635</v>
+      </c>
+      <c r="D173">
         <v>1.5006999999999998E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>6.6194906664517909E-3</v>
       </c>
@@ -13119,10 +15927,14 @@
         <v>15886.24613</v>
       </c>
       <c r="C174">
+        <f t="shared" si="2"/>
+        <v>4.2010212869098824</v>
+      </c>
+      <c r="D174">
         <v>6.6194906664517909E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1.7710999999999998E-2</v>
       </c>
@@ -13130,10 +15942,14 @@
         <v>5038.9256509999996</v>
       </c>
       <c r="C175">
+        <f t="shared" si="2"/>
+        <v>3.7023379504179541</v>
+      </c>
+      <c r="D175">
         <v>1.7710999999999998E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1.477313635674608E-2</v>
       </c>
@@ -13141,10 +15957,14 @@
         <v>10602.241669999999</v>
       </c>
       <c r="C176">
+        <f t="shared" si="2"/>
+        <v>4.0253976994141993</v>
+      </c>
+      <c r="D176">
         <v>1.477313635674608E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1.6075000000000002E-2</v>
       </c>
@@ -13152,10 +15972,14 @@
         <v>6142.9635369999996</v>
       </c>
       <c r="C177">
+        <f t="shared" si="2"/>
+        <v>3.7883779374705169</v>
+      </c>
+      <c r="D177">
         <v>1.6075000000000002E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>9.5995521365650188E-3</v>
       </c>
@@ -13163,10 +15987,14 @@
         <v>6361.8044069999996</v>
       </c>
       <c r="C178">
+        <f t="shared" si="2"/>
+        <v>3.8035803126389336</v>
+      </c>
+      <c r="D178">
         <v>9.5995521365650188E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2.5529088964104728E-2</v>
       </c>
@@ -13174,10 +16002,14 @@
         <v>3726.1951570000001</v>
       </c>
       <c r="C179">
+        <f t="shared" si="2"/>
+        <v>3.5712655970413447</v>
+      </c>
+      <c r="D179">
         <v>2.5529088964104728E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2.5559999999999992E-3</v>
       </c>
@@ -13185,10 +16017,14 @@
         <v>23036.256020000001</v>
       </c>
       <c r="C180">
+        <f t="shared" si="2"/>
+        <v>4.3624118965402525</v>
+      </c>
+      <c r="D180">
         <v>2.5559999999999992E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>8.2089999999999993E-3</v>
       </c>
@@ -13196,10 +16032,14 @@
         <v>10395.913560000001</v>
       </c>
       <c r="C181">
+        <f t="shared" si="2"/>
+        <v>4.0168626597698092</v>
+      </c>
+      <c r="D181">
         <v>8.2089999999999993E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>8.2800000000000009E-3</v>
       </c>
@@ -13207,10 +16047,14 @@
         <v>31722.15972</v>
       </c>
       <c r="C182">
+        <f t="shared" si="2"/>
+        <v>4.5013627474522702</v>
+      </c>
+      <c r="D182">
         <v>8.2800000000000009E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1.3325000000000002E-2</v>
       </c>
@@ -13218,10 +16062,14 @@
         <v>4604.4020350000001</v>
       </c>
       <c r="C183">
+        <f t="shared" si="2"/>
+        <v>3.663173237190402</v>
+      </c>
+      <c r="D183">
         <v>1.3325000000000002E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2.9988000000000001E-2</v>
       </c>
@@ -13229,10 +16077,14 @@
         <v>2584.3977049999999</v>
       </c>
       <c r="C184">
+        <f t="shared" si="2"/>
+        <v>3.4123593467055873</v>
+      </c>
+      <c r="D184">
         <v>2.9988000000000001E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>3.0918000000000005E-2</v>
       </c>
@@ -13240,10 +16092,14 @@
         <v>2246.414111</v>
       </c>
       <c r="C185">
+        <f t="shared" si="2"/>
+        <v>3.3514898185080209</v>
+      </c>
+      <c r="D185">
         <v>3.0918000000000005E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2.6932381937873019E-3</v>
       </c>
@@ -13251,10 +16107,14 @@
         <v>17634.265820000001</v>
       </c>
       <c r="C186">
+        <f t="shared" si="2"/>
+        <v>4.2463573830871439</v>
+      </c>
+      <c r="D186">
         <v>2.6932381937873019E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>5.9999999999999962E-4</v>
       </c>
@@ -13262,10 +16122,14 @@
         <v>63635.823810000002</v>
       </c>
       <c r="C187">
+        <f t="shared" si="2"/>
+        <v>4.8037016707265199</v>
+      </c>
+      <c r="D187">
         <v>5.9999999999999962E-4</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2.0899999999999998E-2</v>
       </c>
@@ -13273,10 +16137,14 @@
         <v>7800.5015009999997</v>
       </c>
       <c r="C188">
+        <f t="shared" si="2"/>
+        <v>3.8921225247565792</v>
+      </c>
+      <c r="D188">
         <v>2.0899999999999998E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>7.6909999999999991E-3</v>
       </c>
@@ -13284,10 +16152,14 @@
         <v>10628.21961</v>
       </c>
       <c r="C189">
+        <f t="shared" si="2"/>
+        <v>4.0264605196209837</v>
+      </c>
+      <c r="D189">
         <v>7.6909999999999991E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2.4042999999999998E-2</v>
       </c>
@@ -13295,10 +16167,14 @@
         <v>2800.4938659999998</v>
       </c>
       <c r="C190">
+        <f t="shared" si="2"/>
+        <v>3.4472346257584574</v>
+      </c>
+      <c r="D190">
         <v>2.4042999999999998E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>8.2140347704251927E-3</v>
       </c>
@@ -13306,10 +16182,14 @@
         <v>17087.1921</v>
       </c>
       <c r="C191">
+        <f t="shared" si="2"/>
+        <v>4.2326707019445262</v>
+      </c>
+      <c r="D191">
         <v>8.2140347704251927E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2.1911E-2</v>
       </c>
@@ -13317,10 +16197,14 @@
         <v>5534.5657899999997</v>
       </c>
       <c r="C192">
+        <f t="shared" si="2"/>
+        <v>3.7430835543197016</v>
+      </c>
+      <c r="D192">
         <v>2.1911E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>3.9230000000000011E-3</v>
       </c>
@@ -13328,10 +16212,14 @@
         <v>11884.18137</v>
       </c>
       <c r="C193">
+        <f t="shared" si="2"/>
+        <v>4.0749692711515797</v>
+      </c>
+      <c r="D193">
         <v>3.9230000000000011E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>8.3890000000000006E-3</v>
       </c>
@@ -13339,10 +16227,14 @@
         <v>13337.790129999999</v>
       </c>
       <c r="C194">
+        <f t="shared" si="2"/>
+        <v>4.1250838795168825</v>
+      </c>
+      <c r="D194">
         <v>8.3890000000000006E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2.7538000000000003E-2</v>
       </c>
@@ -13350,10 +16242,14 @@
         <v>3287.4205240000001</v>
       </c>
       <c r="C195">
+        <f t="shared" ref="C195:C196" si="3">LOG10(B195)</f>
+        <v>3.5168552622109805</v>
+      </c>
+      <c r="D195">
         <v>2.7538000000000003E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2.1479999999999996E-2</v>
       </c>
@@ -13361,6 +16257,10 @@
         <v>2115.1445549999999</v>
       </c>
       <c r="C196">
+        <f t="shared" si="3"/>
+        <v>3.3253400536465314</v>
+      </c>
+      <c r="D196">
         <v>2.1479999999999996E-2</v>
       </c>
     </row>
